--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t xml:space="preserve">ABREU GUTIERREZ, JESUS RAFAEL</t>
   </si>
@@ -40,36 +40,45 @@
     <t xml:space="preserve">V-05965532</t>
   </si>
   <si>
+    <t xml:space="preserve">0114-0162-71hfsz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUIAR, GUILLERMINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-6028080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0114-0162-741621120820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILERA DE B., ZULLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-4081932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01149654-0162-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALAMO A.LORENZO A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-SDSDFSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0114zxccczx-016245fxg-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBORNOZ MARCANO LUIS A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-04886336</t>
+  </si>
+  <si>
     <t xml:space="preserve">0114-0162-71</t>
   </si>
   <si>
-    <t xml:space="preserve">AGUIAR, GUILLERMINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-6028080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0114-0162-741621120820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUILERA DE B., ZULLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-4081932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALAMO A.LORENZO A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-SDSDFSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBORNOZ MARCANO LUIS A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-04886336</t>
-  </si>
-  <si>
     <t xml:space="preserve">645gfh546dfgfdhh</t>
   </si>
   <si>
@@ -79,13 +88,16 @@
     <t xml:space="preserve">0114-0172-49</t>
   </si>
   <si>
+    <t xml:space="preserve">xdddd</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALVARADO CASTILLO, CLAUDIA</t>
   </si>
   <si>
     <t xml:space="preserve">xd</t>
   </si>
   <si>
-    <t xml:space="preserve">0114-0152-06</t>
+    <t xml:space="preserve">0114-0152-03cx6</t>
   </si>
   <si>
     <t xml:space="preserve">ALVAREZ DE TROPPER, ELEONORA</t>
@@ -94,7 +106,7 @@
     <t xml:space="preserve">V-4418727</t>
   </si>
   <si>
-    <t xml:space="preserve">0114-0162-73</t>
+    <t xml:space="preserve">0114-0162-73[]6[4/d</t>
   </si>
 </sst>
 </file>
@@ -228,16 +240,16 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -274,9 +286,7 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>1621106488</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -309,7 +319,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1621107379</v>
@@ -317,19 +327,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1621106399</v>
@@ -337,19 +347,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1621106127</v>
@@ -357,39 +367,39 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1721087340</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1521223606</v>
@@ -397,19 +407,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>1621110426</v>
@@ -418,7 +428,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t xml:space="preserve">ABREU GUTIERREZ, JESUS RAFAEL</t>
   </si>
@@ -41,15 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">0114-0162-71hfsz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUIAR, GUILLERMINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-6028080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0114-0162-741621120820</t>
   </si>
   <si>
     <t xml:space="preserve">AGUILERA DE B., ZULLY</t>
@@ -241,7 +232,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -289,37 +280,31 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1621107379</v>
@@ -327,19 +312,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1621106399</v>
@@ -347,19 +332,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1621106127</v>
@@ -367,39 +352,39 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1521223606</v>
@@ -407,19 +392,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>1621110426</v>
